--- a/main/experiment/results_summary_excel/synt1_results_summary_norm.xlsx
+++ b/main/experiment/results_summary_excel/synt1_results_summary_norm.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\workspace-VisualStudio\AG_IA_2324\main\experiment\results_summary_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699CFE67-0E6F-45E6-936B-B640ECCA3229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D4E927-5C33-45DD-8BCF-C4613C24EF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-930" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2010" yWindow="4740" windowWidth="28800" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
   <dimension ref="A1:I801"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I1"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23695,7 +23695,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I801">
-    <sortCondition ref="G2:G801"/>
+    <sortCondition descending="1" ref="H2:H801"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
